--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9214586666666666</v>
+        <v>0.1594223333333333</v>
       </c>
       <c r="H2">
-        <v>2.764376</v>
+        <v>0.478267</v>
       </c>
       <c r="I2">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="J2">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04154133333333333</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N2">
-        <v>0.124624</v>
+        <v>0.03094</v>
       </c>
       <c r="O2">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="P2">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="Q2">
-        <v>0.03827862162488889</v>
+        <v>0.001644175664444444</v>
       </c>
       <c r="R2">
-        <v>0.344507594624</v>
+        <v>0.01479758098</v>
       </c>
       <c r="S2">
-        <v>0.0004092439196619522</v>
+        <v>1.779626999056267E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004092439196619522</v>
+        <v>1.779626999056267E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.9214586666666666</v>
+        <v>0.1594223333333333</v>
       </c>
       <c r="H3">
-        <v>2.764376</v>
+        <v>0.478267</v>
       </c>
       <c r="I3">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="J3">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>22.410268</v>
       </c>
       <c r="O3">
-        <v>0.915106043637582</v>
+        <v>0.8303652607489888</v>
       </c>
       <c r="P3">
-        <v>0.9151060436375819</v>
+        <v>0.8303652607489886</v>
       </c>
       <c r="Q3">
-        <v>6.883378556974223</v>
+        <v>1.190899071728444</v>
       </c>
       <c r="R3">
-        <v>61.950407012768</v>
+        <v>10.718091645556</v>
       </c>
       <c r="S3">
-        <v>0.07359149053950137</v>
+        <v>0.01289008338360915</v>
       </c>
       <c r="T3">
-        <v>0.07359149053950137</v>
+        <v>0.01289008338360915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9214586666666666</v>
+        <v>0.1594223333333333</v>
       </c>
       <c r="H4">
-        <v>2.764376</v>
+        <v>0.478267</v>
       </c>
       <c r="I4">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="J4">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6514553333333333</v>
+        <v>1.515746</v>
       </c>
       <c r="N4">
-        <v>1.954366</v>
+        <v>4.547238</v>
       </c>
       <c r="O4">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="P4">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="Q4">
-        <v>0.6002891628462221</v>
+        <v>0.2416437640606667</v>
       </c>
       <c r="R4">
-        <v>5.402602465615999</v>
+        <v>2.174793876546</v>
       </c>
       <c r="S4">
-        <v>0.006417803972702294</v>
+        <v>0.002615509862939439</v>
       </c>
       <c r="T4">
-        <v>0.006417803972702294</v>
+        <v>0.002615509862939439</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.739441</v>
       </c>
       <c r="I5">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="J5">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04154133333333333</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N5">
-        <v>0.124624</v>
+        <v>0.03094</v>
       </c>
       <c r="O5">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="P5">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="Q5">
-        <v>0.07947467724266667</v>
+        <v>0.01973092272666667</v>
       </c>
       <c r="R5">
-        <v>0.715272095184</v>
+        <v>0.17757830454</v>
       </c>
       <c r="S5">
-        <v>0.0008496786730562393</v>
+        <v>0.0002135640586344135</v>
       </c>
       <c r="T5">
-        <v>0.0008496786730562393</v>
+        <v>0.0002135640586344134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.739441</v>
       </c>
       <c r="I6">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="J6">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>22.410268</v>
       </c>
       <c r="O6">
-        <v>0.915106043637582</v>
+        <v>0.8303652607489888</v>
       </c>
       <c r="P6">
-        <v>0.9151060436375819</v>
+        <v>0.8303652607489886</v>
       </c>
       <c r="Q6">
         <v>14.29137899779867</v>
@@ -818,10 +818,10 @@
         <v>128.622410980188</v>
       </c>
       <c r="S6">
-        <v>0.1527918119870547</v>
+        <v>0.1546873881436626</v>
       </c>
       <c r="T6">
-        <v>0.1527918119870547</v>
+        <v>0.1546873881436626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.739441</v>
       </c>
       <c r="I7">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="J7">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6514553333333333</v>
+        <v>1.515746</v>
       </c>
       <c r="N7">
-        <v>1.954366</v>
+        <v>4.547238</v>
       </c>
       <c r="O7">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="P7">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="Q7">
-        <v>1.246329816600667</v>
+        <v>2.899844912662001</v>
       </c>
       <c r="R7">
-        <v>11.216968349406</v>
+        <v>26.098604213958</v>
       </c>
       <c r="S7">
-        <v>0.01332474571146994</v>
+        <v>0.03138741444268368</v>
       </c>
       <c r="T7">
-        <v>0.01332474571146994</v>
+        <v>0.03138741444268368</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.623680999999999</v>
+        <v>8.197245333333333</v>
       </c>
       <c r="H8">
-        <v>25.871043</v>
+        <v>24.591736</v>
       </c>
       <c r="I8">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="J8">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.04154133333333333</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N8">
-        <v>0.124624</v>
+        <v>0.03094</v>
       </c>
       <c r="O8">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="P8">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="Q8">
-        <v>0.3582392069813333</v>
+        <v>0.08454092353777777</v>
       </c>
       <c r="R8">
-        <v>3.224152862832</v>
+        <v>0.7608683118399999</v>
       </c>
       <c r="S8">
-        <v>0.003830002518855217</v>
+        <v>0.0009150561786463204</v>
       </c>
       <c r="T8">
-        <v>0.003830002518855217</v>
+        <v>0.0009150561786463203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.623680999999999</v>
+        <v>8.197245333333333</v>
       </c>
       <c r="H9">
-        <v>25.871043</v>
+        <v>24.591736</v>
       </c>
       <c r="I9">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="J9">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>22.410268</v>
       </c>
       <c r="O9">
-        <v>0.915106043637582</v>
+        <v>0.8303652607489888</v>
       </c>
       <c r="P9">
-        <v>0.9151060436375819</v>
+        <v>0.8303652607489886</v>
       </c>
       <c r="Q9">
-        <v>64.41966745216934</v>
+        <v>61.23415492724978</v>
       </c>
       <c r="R9">
-        <v>579.7770070695241</v>
+        <v>551.1073943452479</v>
       </c>
       <c r="S9">
-        <v>0.6887227411110259</v>
+        <v>0.6627877892217169</v>
       </c>
       <c r="T9">
-        <v>0.6887227411110258</v>
+        <v>0.6627877892217169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.623680999999999</v>
+        <v>8.197245333333333</v>
       </c>
       <c r="H10">
-        <v>25.871043</v>
+        <v>24.591736</v>
       </c>
       <c r="I10">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="J10">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6514553333333333</v>
+        <v>1.515746</v>
       </c>
       <c r="N10">
-        <v>1.954366</v>
+        <v>4.547238</v>
       </c>
       <c r="O10">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="P10">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="Q10">
-        <v>5.617942980415332</v>
+        <v>12.42494182501867</v>
       </c>
       <c r="R10">
-        <v>50.56148682373799</v>
+        <v>111.824476425168</v>
       </c>
       <c r="S10">
-        <v>0.06006248156667252</v>
+        <v>0.1344853984381169</v>
       </c>
       <c r="T10">
-        <v>0.06006248156667252</v>
+        <v>0.1344853984381169</v>
       </c>
     </row>
   </sheetData>
